--- a/非受控文档/评分记录/20181202评分/20181202组内评审.xlsx
+++ b/非受控文档/评分记录/20181202评分/20181202组内评审.xlsx
@@ -15,16 +15,12 @@
     <sheet name="评价标准" sheetId="6" r:id="rId6"/>
     <sheet name="总分曲线图" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
   <si>
     <t>被评审人</t>
   </si>
@@ -43,10 +39,6 @@
   </si>
   <si>
     <t>折合分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -572,15 +564,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评分分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平均评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,12 +792,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -813,6 +799,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -908,7 +900,7 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>91.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,19 +953,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>91.85</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.85</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.85</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.85</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.85</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="606762496"/>
-        <c:axId val="15057472"/>
+        <c:axId val="597888512"/>
+        <c:axId val="612481792"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="606762496"/>
+        <c:axId val="597888512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15057472"/>
+        <c:crossAx val="612481792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15057472"/>
+        <c:axId val="612481792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1013,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606762496"/>
+        <c:crossAx val="597888512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,16 +1039,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1078,96 +1070,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet 1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>得分</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>平均分</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>工时</v>
-          </cell>
-          <cell r="B2">
-            <v>95</v>
-          </cell>
-          <cell r="C2">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>完成度</v>
-          </cell>
-          <cell r="B3">
-            <v>80</v>
-          </cell>
-          <cell r="C3">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>完成评定</v>
-          </cell>
-          <cell r="B4">
-            <v>80</v>
-          </cell>
-          <cell r="C4">
-            <v>82.6</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>提交时间</v>
-          </cell>
-          <cell r="B5">
-            <v>100</v>
-          </cell>
-          <cell r="C5">
-            <v>97.6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>评分</v>
-          </cell>
-          <cell r="B6">
-            <v>88.75</v>
-          </cell>
-          <cell r="C6">
-            <v>89.8</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="6:15" x14ac:dyDescent="0.15">
@@ -1498,51 +1400,45 @@
       <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
         <v>100</v>
       </c>
-      <c r="K12" s="2">
-        <v>92.5</v>
-      </c>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
         <v>85</v>
       </c>
-      <c r="K13" s="1">
-        <v>83.25</v>
-      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1552,7 +1448,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1562,7 +1458,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1572,7 +1468,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1580,27 +1476,25 @@
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
         <v>85</v>
       </c>
-      <c r="K18" s="2">
-        <v>85</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1610,7 +1504,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1620,7 +1514,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1630,7 +1524,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1638,53 +1532,48 @@
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <v>90</v>
-      </c>
-      <c r="K23" s="1">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="6:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="6:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4">
         <f>(J12+J13+J18+J23)/4</f>
-        <v>90</v>
+        <v>91.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1703,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.15">
@@ -1717,24 +1606,24 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -1746,13 +1635,13 @@
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
@@ -1766,7 +1655,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1776,7 +1665,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1786,7 +1675,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1796,7 +1685,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1804,13 +1693,13 @@
     </row>
     <row r="33" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
@@ -1824,7 +1713,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1834,7 +1723,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1844,7 +1733,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1854,7 +1743,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1862,13 +1751,13 @@
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1">
@@ -1880,13 +1769,13 @@
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1">
@@ -1899,7 +1788,7 @@
     <row r="40" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41" s="4">
         <f>(K27+K28+K33+K38)/4</f>
@@ -1927,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="7:12" x14ac:dyDescent="0.15">
@@ -1941,24 +1830,24 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
@@ -1970,13 +1859,13 @@
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
@@ -1990,7 +1879,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2000,7 +1889,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2010,7 +1899,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2020,7 +1909,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2028,13 +1917,13 @@
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
@@ -2048,7 +1937,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2058,7 +1947,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2068,7 +1957,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2078,7 +1967,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2086,13 +1975,13 @@
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
@@ -2104,13 +1993,13 @@
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.15">
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
@@ -2123,7 +2012,7 @@
     <row r="26" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="7:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="4">
         <f>(K13+K14+K19+K24)/4</f>
@@ -2151,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="8:13" x14ac:dyDescent="0.15">
@@ -2165,24 +2054,24 @@
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
@@ -2194,13 +2083,13 @@
     </row>
     <row r="15" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
@@ -2214,7 +2103,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2224,7 +2113,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2234,7 +2123,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2244,7 +2133,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2252,13 +2141,13 @@
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
@@ -2272,7 +2161,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2282,7 +2171,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2292,7 +2181,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2302,7 +2191,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2310,13 +2199,13 @@
     </row>
     <row r="25" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
@@ -2328,13 +2217,13 @@
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
@@ -2347,7 +2236,7 @@
     <row r="27" spans="8:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="8:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="4">
         <f>(L14+L15+L20+L25)/4</f>
@@ -2365,7 +2254,7 @@
   <dimension ref="H12:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2375,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="8:13" x14ac:dyDescent="0.15">
@@ -2389,24 +2278,24 @@
         <v>3</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
@@ -2418,13 +2307,13 @@
     </row>
     <row r="15" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
@@ -2438,7 +2327,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2448,7 +2337,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2458,7 +2347,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2468,7 +2357,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2476,13 +2365,13 @@
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
@@ -2496,7 +2385,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2506,7 +2395,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2516,7 +2405,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2526,7 +2415,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2534,13 +2423,13 @@
     </row>
     <row r="25" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
@@ -2552,13 +2441,13 @@
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
@@ -2571,7 +2460,7 @@
     <row r="27" spans="8:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="8:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="4">
         <f>(L14+L15+L20+L25)/4</f>
@@ -2600,87 +2489,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>36</v>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="160.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="44.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="44.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="166.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2587,7 @@
   <dimension ref="D10:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2708,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.15">
@@ -2728,27 +2617,27 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2">
         <v>100</v>
@@ -2771,7 +2660,7 @@
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>90</v>
@@ -2830,7 +2719,7 @@
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
         <v>90</v>
@@ -2889,7 +2778,7 @@
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
         <v>90</v>
@@ -2904,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J23" s="1">
         <v>100</v>
@@ -2912,7 +2801,7 @@
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -2935,7 +2824,7 @@
     </row>
     <row r="26" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <f>(E12+E13+E18+E23)/4+E24</f>
@@ -2955,28 +2844,28 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91.25</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <f>(E26+F26+G26+H26+I26)/5</f>
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
       <c r="F29">
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
       <c r="G29">
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
       <c r="H29">
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
       <c r="I29">
-        <v>91.85</v>
+        <v>92.1</v>
       </c>
     </row>
   </sheetData>
